--- a/AAAI2018/2018_SPC-AC-list.xlsx
+++ b/AAAI2018/2018_SPC-AC-list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26722"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15500" yWindow="1720" windowWidth="26740" windowHeight="26060" activeTab="1"/>
+    <workbookView xWindow="11560" yWindow="2900" windowWidth="26740" windowHeight="26640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SPC" sheetId="2" r:id="rId1"/>
@@ -13,7 +13,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SPC!$A$1:$C$225</definedName>
   </definedNames>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="819">
   <si>
     <t>First Name</t>
   </si>
@@ -2394,13 +2394,100 @@
   </si>
   <si>
     <t xml:space="preserve">Marcu </t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>AI &amp; Web</t>
+  </si>
+  <si>
+    <t>AI &amp; Humans</t>
+  </si>
+  <si>
+    <t>KR</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Cognitive systems</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Human/AI/Robotics</t>
+  </si>
+  <si>
+    <t>Applications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP, Robots, </t>
+  </si>
+  <si>
+    <t>VisionML</t>
+  </si>
+  <si>
+    <t>Simulatiion/cognitive systems</t>
+  </si>
+  <si>
+    <t>Ai and the web, machine translation</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Game heory / application</t>
+  </si>
+  <si>
+    <t>Robotics agents</t>
+  </si>
+  <si>
+    <t>ML + NLP</t>
+  </si>
+  <si>
+    <t>ML - NLP - Vision</t>
+  </si>
+  <si>
+    <t>Vision NLP</t>
+  </si>
+  <si>
+    <t>Web + markets</t>
+  </si>
+  <si>
+    <t>Robots + ML</t>
+  </si>
+  <si>
+    <t>UAI</t>
+  </si>
+  <si>
+    <t>Human AI / Planning</t>
+  </si>
+  <si>
+    <t>Plannig, Robotics</t>
+  </si>
+  <si>
+    <t>Planning Robotics</t>
+  </si>
+  <si>
+    <t>CSC</t>
+  </si>
+  <si>
+    <t>Robotics</t>
+  </si>
+  <si>
+    <t>NLP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -2439,6 +2526,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2457,8 +2556,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2471,7 +2572,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2742,7 +2845,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14003,10 +14106,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C998"/>
+  <dimension ref="A1:D998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
@@ -14014,7 +14117,8 @@
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="23" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="26.83203125" customWidth="1"/>
+    <col min="5" max="23" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
@@ -14193,7 +14297,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>34</v>
       </c>
@@ -14204,7 +14308,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
@@ -14215,7 +14319,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>36</v>
       </c>
@@ -14226,7 +14330,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>36</v>
       </c>
@@ -14237,7 +14341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -14248,7 +14352,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
@@ -14259,7 +14363,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -14269,8 +14373,11 @@
       <c r="C23" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D23" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>41</v>
       </c>
@@ -14280,8 +14387,11 @@
       <c r="C24" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D24" s="4" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>46</v>
       </c>
@@ -14291,8 +14401,11 @@
       <c r="C25" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D25" s="4" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -14302,8 +14415,11 @@
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D26" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -14313,8 +14429,11 @@
       <c r="C27" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D27" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -14324,8 +14443,11 @@
       <c r="C28" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D28" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
@@ -14335,8 +14457,11 @@
       <c r="C29" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D29" s="4" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -14346,8 +14471,11 @@
       <c r="C30" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D30" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
@@ -14357,8 +14485,11 @@
       <c r="C31" s="4" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D31" s="4" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>59</v>
       </c>
@@ -14368,8 +14499,11 @@
       <c r="C32" s="4" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D32" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
@@ -14379,8 +14513,11 @@
       <c r="C33" s="4" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D33" s="4" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>66</v>
       </c>
@@ -14390,8 +14527,11 @@
       <c r="C34" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D34" s="4" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>68</v>
       </c>
@@ -14401,8 +14541,11 @@
       <c r="C35" s="4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D35" s="4" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
@@ -14412,8 +14555,11 @@
       <c r="C36" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D36" s="4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
@@ -14423,8 +14569,11 @@
       <c r="C37" s="4" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D37" s="4" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
@@ -14434,8 +14583,11 @@
       <c r="C38" s="4" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D38" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>74</v>
       </c>
@@ -14445,8 +14597,11 @@
       <c r="C39" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D39" s="4" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>77</v>
       </c>
@@ -14454,8 +14609,11 @@
       <c r="C40" s="4" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D40" s="4" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -14466,7 +14624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
@@ -14476,8 +14634,11 @@
       <c r="C42" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D42" s="4" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
@@ -14487,8 +14648,11 @@
       <c r="C43" s="4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D43" s="4" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
@@ -14498,8 +14662,11 @@
       <c r="C44" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D44" s="4" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
@@ -14510,7 +14677,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+    <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
@@ -14520,8 +14687,11 @@
       <c r="C46" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D46" s="4" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
@@ -14531,8 +14701,11 @@
       <c r="C47" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D47" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>94</v>
       </c>
@@ -14542,8 +14715,11 @@
       <c r="C48" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D48" s="4" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>96</v>
       </c>
@@ -14553,8 +14729,11 @@
       <c r="C49" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D49" s="4" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>98</v>
       </c>
@@ -14564,8 +14743,11 @@
       <c r="C50" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D50" s="4" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>100</v>
       </c>
@@ -14575,8 +14757,11 @@
       <c r="C51" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D51" s="4" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>102</v>
       </c>
@@ -14586,8 +14771,11 @@
       <c r="C52" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D52" s="4" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>104</v>
       </c>
@@ -14597,8 +14785,11 @@
       <c r="C53" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D53" s="4" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>106</v>
       </c>
@@ -14608,8 +14799,11 @@
       <c r="C54" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D54" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>108</v>
       </c>
@@ -14619,8 +14813,11 @@
       <c r="C55" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D55" s="4" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>110</v>
       </c>
@@ -14630,8 +14827,11 @@
       <c r="C56" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D56" s="4" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>112</v>
       </c>
@@ -14641,8 +14841,11 @@
       <c r="C57" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D57" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>114</v>
       </c>
@@ -14652,8 +14855,11 @@
       <c r="C58" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D58" s="4" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>116</v>
       </c>
@@ -14663,8 +14869,11 @@
       <c r="C59" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D59" s="4" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>118</v>
       </c>
@@ -14674,8 +14883,11 @@
       <c r="C60" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D60" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>120</v>
       </c>
@@ -14685,8 +14897,11 @@
       <c r="C61" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D61" s="4" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>122</v>
       </c>
@@ -14696,8 +14911,11 @@
       <c r="C62" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D62" s="4" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1">
       <c r="A63" s="5" t="s">
         <v>124</v>
       </c>
@@ -14707,8 +14925,11 @@
       <c r="C63" s="6" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="D63" s="4" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75" customHeight="1">
       <c r="A64" s="5" t="s">
         <v>36</v>
       </c>
